--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B93F7B-935A-43C9-8780-CF118EF000B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -150,19 +143,48 @@
   </si>
   <si>
     <t>UnitConfig.Name.5001</t>
+  </si>
+  <si>
+    <t>EColliderType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderParams</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体参数(x,y)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,137 +219,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,182 +268,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -529,266 +277,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -798,62 +304,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,35 +615,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1666666666667" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.1666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.6666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.83333333333333" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.66666666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17" style="4" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,10 +653,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1194,8 +669,14 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:10">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1205,10 +686,10 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1221,8 +702,14 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,10 +722,10 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +738,14 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="K3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
@@ -1268,7 +761,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="3">
@@ -1280,37 +773,49 @@
       <c r="J4" s="3">
         <v>68</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1002</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>278</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>78</v>
       </c>
+      <c r="K5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:10">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1003</v>
       </c>
@@ -1323,53 +828,65 @@
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>279</v>
       </c>
       <c r="J6" s="3">
         <v>68</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
       <c r="B7" s="3">
         <v>1004</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>278</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>78</v>
       </c>
+      <c r="K7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>2001</v>
       </c>
@@ -1385,7 +902,7 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="3">
@@ -1397,35 +914,47 @@
       <c r="J8" s="3">
         <v>68</v>
       </c>
+      <c r="K8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
       <c r="B9" s="3">
         <v>5001</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>278</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>78</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1434,8 +963,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B93F7B-935A-43C9-8780-CF118EF000B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEE5FC-89C7-4DFE-9431-008952F90A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -172,11 +172,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞体参数(x,y)</t>
+    <t>子弹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0.1,1</t>
+    <t>食物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体参数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -314,6 +318,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -632,7 +642,7 @@
     <col min="1" max="1" width="21.109375" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="4" customWidth="1"/>
@@ -742,7 +752,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -776,8 +786,8 @@
       <c r="K4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>49</v>
+      <c r="L4" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -811,8 +821,8 @@
       <c r="K5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>49</v>
+      <c r="L5" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -846,8 +856,8 @@
       <c r="K6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>49</v>
+      <c r="L6" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -882,8 +892,8 @@
       <c r="K7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>49</v>
+      <c r="L7" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -899,11 +909,11 @@
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -917,8 +927,8 @@
       <c r="K8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>49</v>
+      <c r="L8" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -935,11 +945,11 @@
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
@@ -953,8 +963,8 @@
       <c r="K9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>49</v>
+      <c r="L9" s="10">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AEE5FC-89C7-4DFE-9431-008952F90A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527D895-264C-4865-BE1D-E840B790FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -97,91 +97,90 @@
     <t>UnitConfig.Name.1001</t>
   </si>
   <si>
-    <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-  </si>
-  <si>
-    <t>测试说明2</t>
-  </si>
-  <si>
     <t>UnitConfig.Name.1002</t>
   </si>
   <si>
-    <t>米克尔2</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能2</t>
-  </si>
-  <si>
     <t>UnitConfig.Name.1003</t>
   </si>
   <si>
-    <t>米克尔3</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能3</t>
-  </si>
-  <si>
-    <t>UnitConfig.Name.1004</t>
-  </si>
-  <si>
-    <t>米克尔4</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能4</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>UnitConfig.Name.5001</t>
+  </si>
+  <si>
+    <t>EColliderType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderParams</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitConfig.Name.2001</t>
-  </si>
-  <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>UnitConfig.Name.5001</t>
-  </si>
-  <si>
-    <t>EColliderType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞体类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColliderType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Circle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),float</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColliderParams</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞体参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig.Name.3001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,12 +217,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -248,6 +241,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -291,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -300,18 +300,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,10 +320,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,22 +631,22 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="17" style="4" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -679,11 +676,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>47</v>
+      <c r="K1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -712,11 +709,11 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>46</v>
+      <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -748,11 +745,11 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>50</v>
+      <c r="K3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -768,11 +765,11 @@
       <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>26</v>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -784,9 +781,9 @@
         <v>68</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="10">
+        <v>33</v>
+      </c>
+      <c r="L4" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -797,31 +794,31 @@
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>278</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>78</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -836,84 +833,84 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>279</v>
       </c>
       <c r="J6" s="3">
         <v>68</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="10">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>2001</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>278</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>78</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="K7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>49</v>
+      <c r="G8" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -924,46 +921,46 @@
       <c r="J8" s="3">
         <v>68</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="K8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3">
         <v>5001</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>278</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>78</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -973,7 +970,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527D895-264C-4865-BE1D-E840B790FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E180BF1-4327-4D53-B147-4B1F2D381BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>测试说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collider</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -313,14 +321,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -628,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -660,10 +668,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,10 +701,10 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
@@ -729,10 +737,10 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
@@ -835,7 +843,7 @@
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -961,6 +969,42 @@
         <v>34</v>
       </c>
       <c r="L9" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3">
+        <v>6001</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>278</v>
+      </c>
+      <c r="J10" s="5">
+        <v>78</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="8">
         <v>0.5</v>
       </c>
     </row>
